--- a/data/respirometry/shallow/final_rates/50_rates.xlsx
+++ b/data/respirometry/shallow/final_rates/50_rates.xlsx
@@ -578,24 +578,24 @@
         </is>
       </c>
       <c r="T2">
-        <v>0.15444</v>
+        <v>0.1450048780487805</v>
       </c>
       <c r="V2">
-        <v>0.0025</v>
+        <v>0.0002448603057459146</v>
       </c>
       <c r="Z2">
-        <v>-0.1610626628302521</v>
+        <v>-0.1512229460108298</v>
       </c>
       <c r="AB2">
-        <v>-0.006442506513210084</v>
+        <v>-617.5886514155957</v>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD2">
-        <v>-0.006442506513210084</v>
+        <v>-617.5886514155957</v>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
@@ -665,24 +665,24 @@
         </is>
       </c>
       <c r="T3">
-        <v>0.15444</v>
+        <v>0.1492487804878049</v>
       </c>
       <c r="V3">
-        <v>0.0025</v>
+        <v>0.0001488973818309612</v>
       </c>
       <c r="Z3">
-        <v>-0.1771585536397577</v>
+        <v>-0.1712036912957602</v>
       </c>
       <c r="AB3">
-        <v>-0.00708634214559031</v>
+        <v>-1149.809950923937</v>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD3">
-        <v>-0.00708634214559031</v>
+        <v>-1149.809950923937</v>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
@@ -752,24 +752,24 @@
         </is>
       </c>
       <c r="T4">
-        <v>0.15444</v>
+        <v>0.1469268292682927</v>
       </c>
       <c r="V4">
-        <v>0.0025</v>
+        <v>0.0002222807942365138</v>
       </c>
       <c r="Z4">
-        <v>-0.1175792088630879</v>
+        <v>-0.1118592356004134</v>
       </c>
       <c r="AB4">
-        <v>-0.004703168354523517</v>
+        <v>-503.2339207920574</v>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD4">
-        <v>-0.004703168354523517</v>
+        <v>-503.2339207920574</v>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
@@ -839,24 +839,24 @@
         </is>
       </c>
       <c r="T5">
-        <v>0.15444</v>
+        <v>0.1418926829268293</v>
       </c>
       <c r="V5">
-        <v>0.0025</v>
+        <v>0.0002529432437181515</v>
       </c>
       <c r="Z5">
-        <v>-0.1217777231153245</v>
+        <v>-0.1118840187357806</v>
       </c>
       <c r="AB5">
-        <v>-0.004871108924612981</v>
+        <v>-442.3285520148156</v>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD5">
-        <v>-0.004871108924612981</v>
+        <v>-442.3285520148156</v>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
@@ -926,24 +926,24 @@
         </is>
       </c>
       <c r="T6">
-        <v>0.15444</v>
+        <v>0.1446439024390244</v>
       </c>
       <c r="V6">
-        <v>0.0025</v>
+        <v>0.0001851607801792304</v>
       </c>
       <c r="Z6">
-        <v>-0.1592009372761614</v>
+        <v>-0.1491028544390983</v>
       </c>
       <c r="AB6">
-        <v>-0.006368037491046457</v>
+        <v>-805.2615369992011</v>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD6">
-        <v>-0.006368037491046457</v>
+        <v>-805.2615369992011</v>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
@@ -1013,24 +1013,24 @@
         </is>
       </c>
       <c r="T7">
-        <v>0.15444</v>
+        <v>0.1429268292682927</v>
       </c>
       <c r="V7">
-        <v>0.0025</v>
+        <v>0.0003232296608680373</v>
       </c>
       <c r="Z7">
-        <v>-0.1677456994254289</v>
+        <v>-0.1552406173418066</v>
       </c>
       <c r="AB7">
-        <v>-0.006709827977017154</v>
+        <v>-480.2796158152874</v>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD7">
-        <v>-0.006709827977017154</v>
+        <v>-480.2796158152874</v>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
@@ -1100,24 +1100,28 @@
         </is>
       </c>
       <c r="T8">
-        <v>0.15444</v>
+        <v>0.1544</v>
       </c>
       <c r="V8">
-        <v>0.0025</v>
+        <v>0</v>
       </c>
       <c r="Z8">
-        <v>-0.0008472943304054633</v>
-      </c>
-      <c r="AB8">
-        <v>-3.389177321621853E-05</v>
+        <v>-0.0008470748809544388</v>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
-        </is>
-      </c>
-      <c r="AD8">
-        <v>-3.389177321621853E-05</v>
+          <t>umolO2/min/m2</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
@@ -1187,24 +1191,24 @@
         </is>
       </c>
       <c r="T9">
-        <v>0.15444</v>
+        <v>0.1450048780487805</v>
       </c>
       <c r="V9">
-        <v>0.0025</v>
+        <v>0.0002448603057459146</v>
       </c>
       <c r="Z9">
-        <v>-0.06494650058417309</v>
+        <v>-0.06097875807370545</v>
       </c>
       <c r="AB9">
-        <v>-0.002597860023366923</v>
+        <v>-249.0348849640888</v>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD9">
-        <v>-0.002597860023366923</v>
+        <v>-249.0348849640888</v>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
@@ -1274,24 +1278,24 @@
         </is>
       </c>
       <c r="T10">
-        <v>0.15444</v>
+        <v>0.1492487804878049</v>
       </c>
       <c r="V10">
-        <v>0.0025</v>
+        <v>0.0001488973818309612</v>
       </c>
       <c r="Z10">
-        <v>-0.05693200226610255</v>
+        <v>-0.05501833662875388</v>
       </c>
       <c r="AB10">
-        <v>-0.002277280090644102</v>
+        <v>-369.5050641737582</v>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD10">
-        <v>-0.002277280090644102</v>
+        <v>-369.5050641737582</v>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
@@ -1361,24 +1365,24 @@
         </is>
       </c>
       <c r="T11">
-        <v>0.15444</v>
+        <v>0.1469268292682927</v>
       </c>
       <c r="V11">
-        <v>0.0025</v>
+        <v>0.0002222807942365138</v>
       </c>
       <c r="Z11">
-        <v>-0.02826676756026631</v>
+        <v>-0.02689165068177779</v>
       </c>
       <c r="AB11">
-        <v>-0.001130670702410652</v>
+        <v>-120.9805407351758</v>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD11">
-        <v>-0.001130670702410652</v>
+        <v>-120.9805407351758</v>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
@@ -1448,24 +1452,24 @@
         </is>
       </c>
       <c r="T12">
-        <v>0.15444</v>
+        <v>0.1418926829268293</v>
       </c>
       <c r="V12">
-        <v>0.0025</v>
+        <v>0.0002529432437181515</v>
       </c>
       <c r="Z12">
-        <v>-0.07615142934072514</v>
+        <v>-0.06996458571528331</v>
       </c>
       <c r="AB12">
-        <v>-0.003046057173629005</v>
+        <v>-276.6019154606997</v>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD12">
-        <v>-0.003046057173629005</v>
+        <v>-276.6019154606997</v>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
@@ -1535,24 +1539,24 @@
         </is>
       </c>
       <c r="T13">
-        <v>0.15444</v>
+        <v>0.1446439024390244</v>
       </c>
       <c r="V13">
-        <v>0.0025</v>
+        <v>0.0001851607801792304</v>
       </c>
       <c r="Z13">
-        <v>-0.02589883078954962</v>
+        <v>-0.02425607325827775</v>
       </c>
       <c r="AB13">
-        <v>-0.001035953231581985</v>
+        <v>-131.0000597037805</v>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD13">
-        <v>-0.001035953231581985</v>
+        <v>-131.0000597037805</v>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
@@ -1622,24 +1626,24 @@
         </is>
       </c>
       <c r="T14">
-        <v>0.15444</v>
+        <v>0.1429268292682927</v>
       </c>
       <c r="V14">
-        <v>0.0025</v>
+        <v>0.0003232296608680373</v>
       </c>
       <c r="Z14">
-        <v>-0.1089956736473001</v>
+        <v>-0.1008702799687271</v>
       </c>
       <c r="AB14">
-        <v>-0.004359826945892003</v>
+        <v>-312.0699990769369</v>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD14">
-        <v>-0.004359826945892003</v>
+        <v>-312.0699990769369</v>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
@@ -1709,24 +1713,28 @@
         </is>
       </c>
       <c r="T15">
-        <v>0.15444</v>
+        <v>0.1544</v>
       </c>
       <c r="V15">
-        <v>0.0025</v>
+        <v>0</v>
       </c>
       <c r="Z15">
-        <v>4.011080923981263E-05</v>
-      </c>
-      <c r="AB15">
-        <v>1.604432369592505E-06</v>
+        <v>4.010042052983081E-05</v>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>Inf</t>
+        </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
-        </is>
-      </c>
-      <c r="AD15">
-        <v>1.604432369592505E-06</v>
+          <t>umolO2/min/m2</t>
+        </is>
+      </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>Inf</t>
+        </is>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
